--- a/q21/2a数据_已替换时间戳_已矫正.xlsx
+++ b/q21/2a数据_已替换时间戳_已矫正.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,196 +436,228 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>首次检查流水号</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>发病到首次影像检查时间间隔</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>入院首次影像检查流水号</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ED_volume.0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>随访1流水号</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>随访2流水号</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>随访3流水号</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>随访4流水号</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>随访5流水号</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.5</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>随访6流水号</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.6</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>随访7流水号</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.7</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>随访8流水号</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ED_volume.8</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>20161212002136</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub001</t>
+        </is>
       </c>
       <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D2" t="n">
         <v>48919</v>
       </c>
-      <c r="C2" t="n">
-        <v>-80644847972544</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>29766</v>
+      </c>
+      <c r="F2" t="n">
         <v>57898</v>
       </c>
-      <c r="E2" t="n">
-        <v>-80644847972544</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>475590</v>
+      </c>
+      <c r="H2" t="n">
         <v>81747</v>
       </c>
-      <c r="G2" t="n">
-        <v>-80644847972544</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>935055</v>
+      </c>
+      <c r="J2" t="n">
         <v>107793</v>
       </c>
-      <c r="I2" t="n">
-        <v>-80644847972544</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>1531938</v>
+      </c>
+      <c r="L2" t="n">
         <v>126558</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>20160406002131</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub002</t>
+        </is>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D3" t="n">
         <v>23526</v>
       </c>
-      <c r="C3" t="n">
-        <v>-80641623965324</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>53724</v>
+      </c>
+      <c r="F3" t="n">
         <v>23390</v>
       </c>
-      <c r="E3" t="n">
-        <v>-80641623965324</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>249199</v>
+      </c>
+      <c r="H3" t="n">
         <v>28415</v>
       </c>
-      <c r="G3" t="n">
-        <v>-80641623965324</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>1612859</v>
+      </c>
+      <c r="J3" t="n">
         <v>34868</v>
       </c>
-      <c r="I3" t="n">
-        <v>-80641623965324</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>4029091</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>20160413000006</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub003</t>
+        </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D4" t="n">
         <v>32621</v>
       </c>
-      <c r="C4" t="n">
-        <v>-80641651971224</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>34281</v>
+      </c>
+      <c r="F4" t="n">
         <v>41292</v>
       </c>
-      <c r="E4" t="n">
-        <v>-80641651971224</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>142545</v>
+      </c>
+      <c r="H4" t="n">
         <v>49767</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -636,34 +668,42 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>20161215001667</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub004</t>
+        </is>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D5" t="n">
         <v>22191</v>
       </c>
-      <c r="C5" t="n">
-        <v>-80644859992268</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>61107</v>
+      </c>
+      <c r="F5" t="n">
         <v>18956</v>
       </c>
-      <c r="E5" t="n">
-        <v>-80644859992268</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>301843</v>
+      </c>
+      <c r="H5" t="n">
         <v>9540</v>
       </c>
-      <c r="G5" t="n">
-        <v>-80644859992268</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>819004</v>
+      </c>
+      <c r="J5" t="n">
         <v>5204</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -672,28 +712,36 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>20161222000978</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub005</t>
+        </is>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D6" t="n">
         <v>47392</v>
       </c>
-      <c r="C6" t="n">
-        <v>-80644887931912</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>95283</v>
+      </c>
+      <c r="F6" t="n">
         <v>23182</v>
       </c>
-      <c r="E6" t="n">
-        <v>-80644887931912</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>352595</v>
+      </c>
+      <c r="H6" t="n">
         <v>12898</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -704,122 +752,146 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>20161110001074</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub006</t>
+        </is>
       </c>
       <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D7" t="n">
         <v>97503</v>
       </c>
-      <c r="C7" t="n">
-        <v>-80644439658696</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>172348</v>
+      </c>
+      <c r="F7" t="n">
         <v>95384</v>
       </c>
-      <c r="E7" t="n">
-        <v>-80644439658696</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>437874</v>
+      </c>
+      <c r="H7" t="n">
         <v>81745</v>
       </c>
-      <c r="G7" t="n">
-        <v>-80644439658696</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>619877</v>
+      </c>
+      <c r="J7" t="n">
         <v>50859</v>
       </c>
-      <c r="I7" t="n">
-        <v>-80644439658696</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>1028332</v>
+      </c>
+      <c r="L7" t="n">
         <v>24730</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>20161208000139</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub007</t>
+        </is>
       </c>
       <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64800</v>
+      </c>
+      <c r="D8" t="n">
         <v>32434</v>
       </c>
-      <c r="C8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>158689</v>
+      </c>
+      <c r="F8" t="n">
         <v>20015</v>
       </c>
-      <c r="E8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>421649</v>
+      </c>
+      <c r="H8" t="n">
         <v>31287</v>
       </c>
-      <c r="G8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>693701</v>
+      </c>
+      <c r="J8" t="n">
         <v>42807</v>
       </c>
-      <c r="I8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>1020374</v>
+      </c>
+      <c r="L8" t="n">
         <v>56867</v>
       </c>
-      <c r="K8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>1112508</v>
+      </c>
+      <c r="N8" t="n">
         <v>51531</v>
       </c>
-      <c r="M8" t="n">
-        <v>-80644831741356</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>1474233</v>
+      </c>
+      <c r="P8" t="n">
         <v>43794</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>20161219000091</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub008</t>
+        </is>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D9" t="n">
         <v>14353</v>
       </c>
-      <c r="C9" t="n">
-        <v>-80644875971564</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>36884</v>
+      </c>
+      <c r="F9" t="n">
         <v>32889</v>
       </c>
-      <c r="E9" t="n">
-        <v>-80644875971564</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>353685</v>
+      </c>
+      <c r="H9" t="n">
         <v>51887</v>
       </c>
-      <c r="G9" t="n">
-        <v>-80644875971564</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>624691</v>
+      </c>
+      <c r="J9" t="n">
         <v>34914</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -828,28 +900,36 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>20161031001987</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub009</t>
+        </is>
       </c>
       <c r="B10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2412</v>
+      </c>
+      <c r="D10" t="n">
         <v>18799</v>
       </c>
-      <c r="C10" t="n">
-        <v>-80644123998300</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>144202</v>
+      </c>
+      <c r="F10" t="n">
         <v>22191</v>
       </c>
-      <c r="E10" t="n">
-        <v>-80644123998300</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>238178</v>
+      </c>
+      <c r="H10" t="n">
         <v>48539</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -860,68 +940,84 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>20161012002008</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub010</t>
+        </is>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D11" t="n">
         <v>15272</v>
       </c>
-      <c r="C11" t="n">
-        <v>-80644047993632</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>54000</v>
+      </c>
+      <c r="F11" t="n">
         <v>22355</v>
       </c>
-      <c r="E11" t="n">
-        <v>-80644047993632</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>141597</v>
+      </c>
+      <c r="H11" t="n">
         <v>23424</v>
       </c>
-      <c r="G11" t="n">
-        <v>-80644047993632</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>761032</v>
+      </c>
+      <c r="J11" t="n">
         <v>10274</v>
       </c>
-      <c r="I11" t="n">
-        <v>-80644047993632</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>3425578</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>20160209000219</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub011</t>
+        </is>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D12" t="n">
         <v>5080</v>
       </c>
-      <c r="C12" t="n">
-        <v>-80640835986476</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>61705</v>
+      </c>
+      <c r="F12" t="n">
         <v>3642</v>
       </c>
-      <c r="E12" t="n">
-        <v>-80640835986476</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>1197272</v>
+      </c>
+      <c r="H12" t="n">
         <v>13</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -932,116 +1028,140 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>20161031001142</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub012</t>
+        </is>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D13" t="n">
         <v>15254</v>
       </c>
-      <c r="C13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>41554</v>
+      </c>
+      <c r="F13" t="n">
         <v>16723</v>
       </c>
-      <c r="E13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>104632</v>
+      </c>
+      <c r="H13" t="n">
         <v>13818</v>
       </c>
-      <c r="G13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>257805</v>
+      </c>
+      <c r="J13" t="n">
         <v>20788</v>
       </c>
-      <c r="I13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>622277</v>
+      </c>
+      <c r="L13" t="n">
         <v>22086</v>
       </c>
-      <c r="K13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>1732597</v>
+      </c>
+      <c r="N13" t="n">
         <v>55714</v>
       </c>
-      <c r="M13" t="n">
-        <v>-80644123975768</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>4578517</v>
+      </c>
+      <c r="P13" t="n">
         <v>1099</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>20161124000397</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub013</t>
+        </is>
       </c>
       <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D14" t="n">
         <v>9694</v>
       </c>
-      <c r="C14" t="n">
-        <v>-80644495958388</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>95271</v>
+      </c>
+      <c r="F14" t="n">
         <v>9249</v>
       </c>
-      <c r="E14" t="n">
-        <v>-80644495958388</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>699528</v>
+      </c>
+      <c r="H14" t="n">
         <v>15231</v>
       </c>
-      <c r="G14" t="n">
-        <v>-80644495958388</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>1848448</v>
+      </c>
+      <c r="J14" t="n">
         <v>7072</v>
       </c>
-      <c r="I14" t="n">
-        <v>-80644495958388</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>2748479</v>
+      </c>
+      <c r="L14" t="n">
         <v>1754</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>20160513001799</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub014</t>
+        </is>
       </c>
       <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D15" t="n">
         <v>12291</v>
       </c>
-      <c r="C15" t="n">
-        <v>-80642051992796</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>84216</v>
+      </c>
+      <c r="F15" t="n">
         <v>19434</v>
       </c>
-      <c r="E15" t="n">
-        <v>-80642051992796</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>861131</v>
+      </c>
+      <c r="H15" t="n">
         <v>31092</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1052,34 +1172,42 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>20161013001234</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub015</t>
+        </is>
       </c>
       <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D16" t="n">
         <v>5759</v>
       </c>
-      <c r="C16" t="n">
-        <v>-80644051932936</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>606143</v>
+      </c>
+      <c r="F16" t="n">
         <v>17205</v>
       </c>
-      <c r="E16" t="n">
-        <v>-80644051932936</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>1207663</v>
+      </c>
+      <c r="H16" t="n">
         <v>96502</v>
       </c>
-      <c r="G16" t="n">
-        <v>-80644051932936</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>2306126</v>
+      </c>
+      <c r="J16" t="n">
         <v>55312</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1088,28 +1216,36 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>20161130000004</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub016</t>
+        </is>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D17" t="n">
         <v>28955</v>
       </c>
-      <c r="C17" t="n">
-        <v>-80644519985616</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>48003</v>
+      </c>
+      <c r="F17" t="n">
         <v>36267</v>
       </c>
-      <c r="E17" t="n">
-        <v>-80644519985616</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>458468</v>
+      </c>
+      <c r="H17" t="n">
         <v>94642</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1120,34 +1256,42 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>20160510002436</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub017</t>
+        </is>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D18" t="n">
         <v>11533</v>
       </c>
-      <c r="C18" t="n">
-        <v>-80642039980944</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>53533</v>
+      </c>
+      <c r="F18" t="n">
         <v>22075</v>
       </c>
-      <c r="E18" t="n">
-        <v>-80642039980944</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>654501</v>
+      </c>
+      <c r="H18" t="n">
         <v>44436</v>
       </c>
-      <c r="G18" t="n">
-        <v>-80642039980944</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>1712546</v>
+      </c>
+      <c r="J18" t="n">
         <v>34853</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1156,34 +1300,42 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>20160602001707</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub018</t>
+        </is>
       </c>
       <c r="B19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D19" t="n">
         <v>23890</v>
       </c>
-      <c r="C19" t="n">
-        <v>-80642407999628</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>56056</v>
+      </c>
+      <c r="F19" t="n">
         <v>38354</v>
       </c>
-      <c r="E19" t="n">
-        <v>-80642407999628</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>138317</v>
+      </c>
+      <c r="H19" t="n">
         <v>45387</v>
       </c>
-      <c r="G19" t="n">
-        <v>-80642407999628</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
+        <v>849773</v>
+      </c>
+      <c r="J19" t="n">
         <v>64084</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1192,118 +1344,142 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>20160117000135</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub019</t>
+        </is>
       </c>
       <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32400</v>
+      </c>
+      <c r="D20" t="n">
         <v>11107</v>
       </c>
-      <c r="C20" t="n">
-        <v>-80640467870940</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>65955</v>
+      </c>
+      <c r="F20" t="n">
         <v>16594</v>
       </c>
-      <c r="E20" t="n">
-        <v>-80640467870940</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>153490</v>
+      </c>
+      <c r="H20" t="n">
         <v>18649</v>
       </c>
-      <c r="G20" t="n">
-        <v>-80640467870940</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>1068844</v>
+      </c>
+      <c r="J20" t="n">
         <v>27745</v>
       </c>
-      <c r="I20" t="n">
-        <v>-80640467870940</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>2901171</v>
+      </c>
+      <c r="L20" t="n">
         <v>1549</v>
       </c>
-      <c r="K20" t="n">
-        <v>-80640467870940</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>6423754</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20160723000013</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub020</t>
+        </is>
       </c>
       <c r="B21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2412</v>
+      </c>
+      <c r="D21" t="n">
         <v>160</v>
       </c>
-      <c r="C21" t="n">
-        <v>-80642891990404</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>21956</v>
+      </c>
+      <c r="F21" t="n">
         <v>527</v>
       </c>
-      <c r="E21" t="n">
-        <v>-80642891990404</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>130705</v>
+      </c>
+      <c r="H21" t="n">
         <v>233</v>
       </c>
-      <c r="G21" t="n">
-        <v>-80642891990404</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>-80642891990404</v>
+        <v>2623363</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6005977</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20160317001244</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub021</t>
+        </is>
       </c>
       <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D22" t="n">
         <v>12852</v>
       </c>
-      <c r="C22" t="n">
-        <v>-80641267990576</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>105407</v>
+      </c>
+      <c r="F22" t="n">
         <v>19022</v>
       </c>
-      <c r="E22" t="n">
-        <v>-80641267990576</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>341940</v>
+      </c>
+      <c r="H22" t="n">
         <v>18694</v>
       </c>
-      <c r="G22" t="n">
-        <v>-80641267990576</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>1140353</v>
+      </c>
+      <c r="J22" t="n">
         <v>19750</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1312,28 +1488,36 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>20160803001239</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub022</t>
+        </is>
       </c>
       <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D23" t="n">
         <v>5463</v>
       </c>
-      <c r="C23" t="n">
-        <v>-80643211990556</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>77255</v>
+      </c>
+      <c r="F23" t="n">
         <v>8707</v>
       </c>
-      <c r="E23" t="n">
-        <v>-80643211990556</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
+        <v>1200861</v>
+      </c>
+      <c r="H23" t="n">
         <v>8820</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1344,82 +1528,98 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>20160321000142</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub023</t>
+        </is>
       </c>
       <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D24" t="n">
         <v>42734</v>
       </c>
-      <c r="C24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>101382</v>
+      </c>
+      <c r="F24" t="n">
         <v>44699</v>
       </c>
-      <c r="E24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
+        <v>795716</v>
+      </c>
+      <c r="H24" t="n">
         <v>41808</v>
       </c>
-      <c r="G24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
+        <v>1309540</v>
+      </c>
+      <c r="J24" t="n">
         <v>40009</v>
       </c>
-      <c r="I24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>1825075</v>
+      </c>
+      <c r="L24" t="n">
         <v>30197</v>
       </c>
-      <c r="K24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
+        <v>2362414</v>
+      </c>
+      <c r="N24" t="n">
         <v>3868</v>
       </c>
-      <c r="M24" t="n">
-        <v>-80641283971768</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
+        <v>5030518</v>
+      </c>
+      <c r="P24" t="n">
         <v>377</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>20170802000637</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub024</t>
+        </is>
       </c>
       <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D25" t="n">
         <v>9317</v>
       </c>
-      <c r="C25" t="n">
-        <v>-80683207930548</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>105710</v>
+      </c>
+      <c r="F25" t="n">
         <v>7296</v>
       </c>
-      <c r="E25" t="n">
-        <v>-80683207930548</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
+        <v>1070021</v>
+      </c>
+      <c r="H25" t="n">
         <v>1124</v>
       </c>
-      <c r="G25" t="n">
-        <v>-80683207930548</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>1657130</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1428,28 +1628,36 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>20171226002293</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub025</t>
+        </is>
       </c>
       <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25200</v>
+      </c>
+      <c r="D26" t="n">
         <v>9073</v>
       </c>
-      <c r="C26" t="n">
-        <v>-80684903908372</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>87083</v>
+      </c>
+      <c r="F26" t="n">
         <v>17400</v>
       </c>
-      <c r="E26" t="n">
-        <v>-80684903908372</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
+        <v>242892</v>
+      </c>
+      <c r="H26" t="n">
         <v>27520</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1460,34 +1668,42 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>20171008000512</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub026</t>
+        </is>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D27" t="n">
         <v>21095</v>
       </c>
-      <c r="C27" t="n">
-        <v>-80684031987648</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>81273</v>
+      </c>
+      <c r="F27" t="n">
         <v>19888</v>
       </c>
-      <c r="E27" t="n">
-        <v>-80684031987648</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
+        <v>273717</v>
+      </c>
+      <c r="H27" t="n">
         <v>44172</v>
       </c>
-      <c r="G27" t="n">
-        <v>-80684031987648</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>1653176</v>
+      </c>
+      <c r="J27" t="n">
         <v>57285</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1496,34 +1712,42 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>20170206000071</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub027</t>
+        </is>
       </c>
       <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D28" t="n">
         <v>7286</v>
       </c>
-      <c r="C28" t="n">
-        <v>-80680823957084</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>109536</v>
+      </c>
+      <c r="F28" t="n">
         <v>40975</v>
       </c>
-      <c r="E28" t="n">
-        <v>-80680823957084</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
+        <v>639703</v>
+      </c>
+      <c r="H28" t="n">
         <v>23846</v>
       </c>
-      <c r="G28" t="n">
-        <v>-80680823957084</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>900141</v>
+      </c>
+      <c r="J28" t="n">
         <v>18389</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1532,74 +1756,90 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>20171013002097</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub028</t>
+        </is>
       </c>
       <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D29" t="n">
         <v>16568</v>
       </c>
-      <c r="C29" t="n">
-        <v>-80684051979588</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>62532</v>
+      </c>
+      <c r="F29" t="n">
         <v>26888</v>
       </c>
-      <c r="E29" t="n">
-        <v>-80684051979588</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
+        <v>514534</v>
+      </c>
+      <c r="H29" t="n">
         <v>45445</v>
       </c>
-      <c r="G29" t="n">
-        <v>-80684051979588</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>1465489</v>
+      </c>
+      <c r="J29" t="n">
         <v>82603</v>
       </c>
-      <c r="I29" t="n">
-        <v>-80684051979588</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
+        <v>4842677</v>
+      </c>
+      <c r="L29" t="n">
         <v>1477</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>20170607000010</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub029</t>
+        </is>
       </c>
       <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28800</v>
+      </c>
+      <c r="D30" t="n">
         <v>44907</v>
       </c>
-      <c r="C30" t="n">
-        <v>-80682427884840</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>129497</v>
+      </c>
+      <c r="F30" t="n">
         <v>62015</v>
       </c>
-      <c r="E30" t="n">
-        <v>-80682427884840</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
+        <v>1257271</v>
+      </c>
+      <c r="H30" t="n">
         <v>43817</v>
       </c>
-      <c r="G30" t="n">
-        <v>-80682427884840</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
+        <v>3846154</v>
+      </c>
+      <c r="J30" t="n">
         <v>6395</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1608,68 +1848,84 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>20171025000480</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub030</t>
+        </is>
       </c>
       <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28800</v>
+      </c>
+      <c r="D31" t="n">
         <v>18378</v>
       </c>
-      <c r="C31" t="n">
-        <v>-80684099886720</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>118914</v>
+      </c>
+      <c r="F31" t="n">
         <v>40860</v>
       </c>
-      <c r="E31" t="n">
-        <v>-80684099886720</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
+        <v>467817</v>
+      </c>
+      <c r="H31" t="n">
         <v>104295</v>
       </c>
-      <c r="G31" t="n">
-        <v>-80684099886720</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>1072651</v>
+      </c>
+      <c r="J31" t="n">
         <v>79204</v>
       </c>
-      <c r="I31" t="n">
-        <v>-80684099886720</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>1674901</v>
+      </c>
+      <c r="L31" t="n">
         <v>94574</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>20170307002130</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sub031</t>
+        </is>
       </c>
       <c r="B32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D32" t="n">
         <v>17339</v>
       </c>
-      <c r="C32" t="n">
-        <v>-80681228001320</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>15006</v>
+      </c>
+      <c r="F32" t="n">
         <v>35646</v>
       </c>
-      <c r="E32" t="n">
-        <v>-80681228001320</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
+        <v>43087</v>
+      </c>
+      <c r="H32" t="n">
         <v>44392</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1680,28 +1936,36 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>20171009000137</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sub032</t>
+        </is>
       </c>
       <c r="B33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D33" t="n">
         <v>746</v>
       </c>
-      <c r="C33" t="n">
-        <v>-80684035978948</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>123503</v>
+      </c>
+      <c r="F33" t="n">
         <v>6240</v>
       </c>
-      <c r="E33" t="n">
-        <v>-80684035978948</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
+        <v>618742</v>
+      </c>
+      <c r="H33" t="n">
         <v>440</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1712,78 +1976,94 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>20170115000362</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sub033</t>
+        </is>
       </c>
       <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21600</v>
+      </c>
+      <c r="D34" t="n">
         <v>1500</v>
       </c>
-      <c r="C34" t="n">
-        <v>-80680459915048</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>110927</v>
+      </c>
+      <c r="F34" t="n">
         <v>6706</v>
       </c>
-      <c r="E34" t="n">
-        <v>-80680459915048</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
+        <v>245506</v>
+      </c>
+      <c r="H34" t="n">
         <v>22570</v>
       </c>
-      <c r="G34" t="n">
-        <v>-80680459915048</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
+        <v>441412</v>
+      </c>
+      <c r="J34" t="n">
         <v>20385</v>
       </c>
-      <c r="I34" t="n">
-        <v>-80680459915048</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
+        <v>1629155</v>
+      </c>
+      <c r="L34" t="n">
         <v>2503</v>
       </c>
-      <c r="K34" t="n">
-        <v>-80680459915048</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
+        <v>3043977</v>
+      </c>
+      <c r="N34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>20170119000729</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sub034</t>
+        </is>
       </c>
       <c r="B35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D35" t="n">
         <v>10958</v>
       </c>
-      <c r="C35" t="n">
-        <v>-80680475995716</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>19712</v>
+      </c>
+      <c r="F35" t="n">
         <v>33449</v>
       </c>
-      <c r="E35" t="n">
-        <v>-80680475995716</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
+        <v>344059</v>
+      </c>
+      <c r="H35" t="n">
         <v>79391</v>
       </c>
-      <c r="G35" t="n">
-        <v>-80680475995716</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>1295845</v>
+      </c>
+      <c r="J35" t="n">
         <v>77707</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -1792,290 +2072,346 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>20171014001244</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sub035</t>
+        </is>
       </c>
       <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D36" t="n">
         <v>15345</v>
       </c>
-      <c r="C36" t="n">
-        <v>-80684055961776</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>75149</v>
+      </c>
+      <c r="F36" t="n">
         <v>21633</v>
       </c>
-      <c r="E36" t="n">
-        <v>-80684055961776</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
+        <v>398850</v>
+      </c>
+      <c r="H36" t="n">
         <v>22328</v>
       </c>
-      <c r="G36" t="n">
-        <v>-80684055961776</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
+        <v>916617</v>
+      </c>
+      <c r="J36" t="n">
         <v>12735</v>
       </c>
-      <c r="I36" t="n">
-        <v>-80684055961776</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
+        <v>1435977</v>
+      </c>
+      <c r="L36" t="n">
         <v>14406</v>
       </c>
-      <c r="K36" t="n">
-        <v>-80684055961776</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
+        <v>2129285</v>
+      </c>
+      <c r="N36" t="n">
         <v>4432</v>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>20170204001714</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sub036</t>
+        </is>
       </c>
       <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D37" t="n">
         <v>16707</v>
       </c>
-      <c r="C37" t="n">
-        <v>-80680815963656</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
+        <v>142204</v>
+      </c>
+      <c r="F37" t="n">
         <v>35116</v>
       </c>
-      <c r="E37" t="n">
-        <v>-80680815963656</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
+        <v>316015</v>
+      </c>
+      <c r="H37" t="n">
         <v>4992</v>
       </c>
-      <c r="G37" t="n">
-        <v>-80680815963656</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>826571</v>
+      </c>
+      <c r="J37" t="n">
         <v>26813</v>
       </c>
-      <c r="I37" t="n">
-        <v>-80680815963656</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
+        <v>1353212</v>
+      </c>
+      <c r="L37" t="n">
         <v>19245</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>20170426000005</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sub037</t>
+        </is>
       </c>
       <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D38" t="n">
         <v>19961</v>
       </c>
-      <c r="C38" t="n">
-        <v>-80681703971220</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>56092</v>
+      </c>
+      <c r="F38" t="n">
         <v>40092</v>
       </c>
-      <c r="E38" t="n">
-        <v>-80681703971220</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>560499</v>
+      </c>
+      <c r="H38" t="n">
         <v>66059</v>
       </c>
-      <c r="G38" t="n">
-        <v>-80681703971220</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>1943395</v>
+      </c>
+      <c r="J38" t="n">
         <v>51755</v>
       </c>
-      <c r="I38" t="n">
-        <v>-80681703971220</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
+        <v>3771331</v>
+      </c>
+      <c r="L38" t="n">
         <v>10000</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>20170518002194</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sub038</t>
+        </is>
       </c>
       <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D39" t="n">
         <v>4386</v>
       </c>
-      <c r="C39" t="n">
-        <v>-80682071994376</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>56913</v>
+      </c>
+      <c r="F39" t="n">
         <v>10710</v>
       </c>
-      <c r="E39" t="n">
-        <v>-80682071994376</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
+        <v>488091</v>
+      </c>
+      <c r="H39" t="n">
         <v>30637</v>
       </c>
-      <c r="G39" t="n">
-        <v>-80682071994376</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>1092583</v>
+      </c>
+      <c r="J39" t="n">
         <v>33686</v>
       </c>
-      <c r="I39" t="n">
-        <v>-80682071994376</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
+        <v>1873555</v>
+      </c>
+      <c r="L39" t="n">
         <v>28862</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>20170425002487</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sub039</t>
+        </is>
       </c>
       <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D40" t="n">
         <v>16139</v>
       </c>
-      <c r="C40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>105034</v>
+      </c>
+      <c r="F40" t="n">
         <v>28012</v>
       </c>
-      <c r="E40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
+        <v>152989</v>
+      </c>
+      <c r="H40" t="n">
         <v>45743</v>
       </c>
-      <c r="G40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>490562</v>
+      </c>
+      <c r="J40" t="n">
         <v>63043</v>
       </c>
-      <c r="I40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
+        <v>1026043</v>
+      </c>
+      <c r="L40" t="n">
         <v>127535</v>
       </c>
-      <c r="K40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
+        <v>1703260</v>
+      </c>
+      <c r="N40" t="n">
         <v>115761</v>
       </c>
-      <c r="M40" t="n">
-        <v>-80681699981148</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
+        <v>3510348</v>
+      </c>
+      <c r="P40" t="n">
         <v>8307</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>20170902000876</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sub040</t>
+        </is>
       </c>
       <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D41" t="n">
         <v>4401</v>
       </c>
-      <c r="C41" t="n">
-        <v>-80683607989104</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>42061</v>
+      </c>
+      <c r="F41" t="n">
         <v>16232</v>
       </c>
-      <c r="E41" t="n">
-        <v>-80683607989104</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
+        <v>216371</v>
+      </c>
+      <c r="H41" t="n">
         <v>34542</v>
       </c>
-      <c r="G41" t="n">
-        <v>-80683607989104</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>734734</v>
+      </c>
+      <c r="J41" t="n">
         <v>39826</v>
       </c>
-      <c r="I41" t="n">
-        <v>-80683607989104</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
+        <v>1251423</v>
+      </c>
+      <c r="L41" t="n">
         <v>97468</v>
       </c>
-      <c r="K41" t="n">
-        <v>-80683607989104</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
+        <v>2376268</v>
+      </c>
+      <c r="N41" t="n">
         <v>51033</v>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>20171002000282</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sub041</t>
+        </is>
       </c>
       <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D42" t="n">
         <v>5169</v>
       </c>
-      <c r="C42" t="n">
-        <v>-80684007986728</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
+        <v>21382</v>
+      </c>
+      <c r="F42" t="n">
         <v>6081</v>
       </c>
-      <c r="E42" t="n">
-        <v>-80684007986728</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
+        <v>431172</v>
+      </c>
+      <c r="H42" t="n">
         <v>19447</v>
       </c>
-      <c r="G42" t="n">
-        <v>-80684007986728</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>2058840</v>
+      </c>
+      <c r="J42" t="n">
         <v>2735</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2084,34 +2420,42 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>20170420000636</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sub042</t>
+        </is>
       </c>
       <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D43" t="n">
         <v>12949</v>
       </c>
-      <c r="C43" t="n">
-        <v>-80681679973744</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>93380</v>
+      </c>
+      <c r="F43" t="n">
         <v>20132</v>
       </c>
-      <c r="E43" t="n">
-        <v>-80681679973744</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
+        <v>1132337</v>
+      </c>
+      <c r="H43" t="n">
         <v>3744</v>
       </c>
-      <c r="G43" t="n">
-        <v>-80681679973744</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
+        <v>2773900</v>
+      </c>
+      <c r="J43" t="n">
         <v>625</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2120,34 +2464,42 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>20170325000428</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sub043</t>
+        </is>
       </c>
       <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32400</v>
+      </c>
+      <c r="D44" t="n">
         <v>20931</v>
       </c>
-      <c r="C44" t="n">
-        <v>-80681299872112</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>120550</v>
+      </c>
+      <c r="F44" t="n">
         <v>28785</v>
       </c>
-      <c r="E44" t="n">
-        <v>-80681299872112</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>209091</v>
+      </c>
+      <c r="H44" t="n">
         <v>23317</v>
       </c>
-      <c r="G44" t="n">
-        <v>-80681299872112</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
+        <v>642988</v>
+      </c>
+      <c r="J44" t="n">
         <v>21325</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2156,78 +2508,94 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>20170528000084</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sub044</t>
+        </is>
       </c>
       <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21600</v>
+      </c>
+      <c r="D45" t="n">
         <v>26140</v>
       </c>
-      <c r="C45" t="n">
-        <v>-80682111913936</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
+        <v>112267</v>
+      </c>
+      <c r="F45" t="n">
         <v>39633</v>
       </c>
-      <c r="E45" t="n">
-        <v>-80682111913936</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
+        <v>198767</v>
+      </c>
+      <c r="H45" t="n">
         <v>58778</v>
       </c>
-      <c r="G45" t="n">
-        <v>-80682111913936</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
+        <v>722957</v>
+      </c>
+      <c r="J45" t="n">
         <v>81670</v>
       </c>
-      <c r="I45" t="n">
-        <v>-80682111913936</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
+        <v>1929737</v>
+      </c>
+      <c r="L45" t="n">
         <v>58161</v>
       </c>
-      <c r="K45" t="n">
-        <v>-80682111913936</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
+        <v>13425513</v>
+      </c>
+      <c r="N45" t="n">
         <v>57</v>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>20170324001892</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sub045</t>
+        </is>
       </c>
       <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D46" t="n">
         <v>6480</v>
       </c>
-      <c r="C46" t="n">
-        <v>-80681295978768</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
+        <v>54663</v>
+      </c>
+      <c r="F46" t="n">
         <v>9541</v>
       </c>
-      <c r="E46" t="n">
-        <v>-80681295978768</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
+        <v>1001261</v>
+      </c>
+      <c r="H46" t="n">
         <v>38180</v>
       </c>
-      <c r="G46" t="n">
-        <v>-80681295978768</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
+        <v>1431445</v>
+      </c>
+      <c r="J46" t="n">
         <v>34625</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2236,28 +2604,36 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>20170511000016</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sub046</t>
+        </is>
       </c>
       <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D47" t="n">
         <v>37663</v>
       </c>
-      <c r="C47" t="n">
-        <v>-80682043985664</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
+        <v>531439</v>
+      </c>
+      <c r="F47" t="n">
         <v>50652</v>
       </c>
-      <c r="E47" t="n">
-        <v>-80682043985664</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
+        <v>1745759</v>
+      </c>
+      <c r="H47" t="n">
         <v>40598</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2268,34 +2644,42 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>20171019001652</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sub047</t>
+        </is>
       </c>
       <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D48" t="n">
         <v>5848</v>
       </c>
-      <c r="C48" t="n">
-        <v>-80684075977808</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
+        <v>74965</v>
+      </c>
+      <c r="F48" t="n">
         <v>9150</v>
       </c>
-      <c r="E48" t="n">
-        <v>-80684075977808</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
+        <v>349550</v>
+      </c>
+      <c r="H48" t="n">
         <v>18251</v>
       </c>
-      <c r="G48" t="n">
-        <v>-80684075977808</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
+        <v>3441678</v>
+      </c>
+      <c r="J48" t="n">
         <v>633</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2304,34 +2688,42 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>20170402000556</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub048</t>
+        </is>
       </c>
       <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D49" t="n">
         <v>4473</v>
       </c>
-      <c r="C49" t="n">
-        <v>-80681607987824</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
+        <v>46299</v>
+      </c>
+      <c r="F49" t="n">
         <v>30752</v>
       </c>
-      <c r="E49" t="n">
-        <v>-80681607987824</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
+        <v>230275</v>
+      </c>
+      <c r="H49" t="n">
         <v>43374</v>
       </c>
-      <c r="G49" t="n">
-        <v>-80681607987824</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
+        <v>834205</v>
+      </c>
+      <c r="J49" t="n">
         <v>69692</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2340,34 +2732,42 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>20171005000770</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub049</t>
+        </is>
       </c>
       <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D50" t="n">
         <v>3955</v>
       </c>
-      <c r="C50" t="n">
-        <v>-80684019859080</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
+        <v>95712</v>
+      </c>
+      <c r="F50" t="n">
         <v>4024</v>
       </c>
-      <c r="E50" t="n">
-        <v>-80684019859080</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
+        <v>451514</v>
+      </c>
+      <c r="H50" t="n">
         <v>2946</v>
       </c>
-      <c r="G50" t="n">
-        <v>-80684019859080</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
+        <v>961000</v>
+      </c>
+      <c r="J50" t="n">
         <v>189</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -2376,28 +2776,36 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>20171105000372</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub050</t>
+        </is>
       </c>
       <c r="B51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>34200</v>
+      </c>
+      <c r="D51" t="n">
         <v>8814</v>
       </c>
-      <c r="C51" t="n">
-        <v>-80684419864688</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
+        <v>176774</v>
+      </c>
+      <c r="F51" t="n">
         <v>12524</v>
       </c>
-      <c r="E51" t="n">
-        <v>-80684419864688</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
+        <v>1048743</v>
+      </c>
+      <c r="H51" t="n">
         <v>20041</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2408,118 +2816,142 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>20170422000935</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub051</t>
+        </is>
       </c>
       <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D52" t="n">
         <v>16801</v>
       </c>
-      <c r="C52" t="n">
-        <v>-80681687931740</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
+        <v>156692</v>
+      </c>
+      <c r="F52" t="n">
         <v>27870</v>
       </c>
-      <c r="E52" t="n">
-        <v>-80681687931740</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
+        <v>1366631</v>
+      </c>
+      <c r="H52" t="n">
         <v>13138</v>
       </c>
-      <c r="G52" t="n">
-        <v>-80681687931740</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
+        <v>1970211</v>
+      </c>
+      <c r="J52" t="n">
         <v>6400</v>
       </c>
-      <c r="I52" t="n">
-        <v>-80681687931740</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
+        <v>4489359</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>20170608001310</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub052</t>
+        </is>
       </c>
       <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D53" t="n">
         <v>7036</v>
       </c>
-      <c r="C53" t="n">
-        <v>-80682431947640</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
+        <v>176054</v>
+      </c>
+      <c r="F53" t="n">
         <v>45266</v>
       </c>
-      <c r="E53" t="n">
-        <v>-80682431947640</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
+        <v>1040845</v>
+      </c>
+      <c r="H53" t="n">
         <v>79961</v>
       </c>
-      <c r="G53" t="n">
-        <v>-80682431947640</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
+        <v>2175618</v>
+      </c>
+      <c r="J53" t="n">
         <v>70743</v>
       </c>
-      <c r="I53" t="n">
-        <v>-80682431947640</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
       <c r="K53" t="n">
-        <v>-80682431947640</v>
+        <v>6389871</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>16327159</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>20170511001392</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub053</t>
+        </is>
       </c>
       <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D54" t="n">
         <v>16764</v>
       </c>
-      <c r="C54" t="n">
-        <v>-80682043976768</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
+        <v>107258</v>
+      </c>
+      <c r="F54" t="n">
         <v>22536</v>
       </c>
-      <c r="E54" t="n">
-        <v>-80682043976768</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
+        <v>955504</v>
+      </c>
+      <c r="H54" t="n">
         <v>52101</v>
       </c>
-      <c r="G54" t="n">
-        <v>-80682043976768</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
+        <v>2789798</v>
+      </c>
+      <c r="J54" t="n">
         <v>10340</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -2528,34 +2960,42 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>20170612002216</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub054</t>
+        </is>
       </c>
       <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D55" t="n">
         <v>12628</v>
       </c>
-      <c r="C55" t="n">
-        <v>-80682447994464</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
+        <v>58410</v>
+      </c>
+      <c r="F55" t="n">
         <v>16033</v>
       </c>
-      <c r="E55" t="n">
-        <v>-80682447994464</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
+        <v>678832</v>
+      </c>
+      <c r="H55" t="n">
         <v>24644</v>
       </c>
-      <c r="G55" t="n">
-        <v>-80682447994464</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
+        <v>1442772</v>
+      </c>
+      <c r="J55" t="n">
         <v>26006</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -2564,28 +3004,36 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>20170316001977</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub055</t>
+        </is>
       </c>
       <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D56" t="n">
         <v>15417</v>
       </c>
-      <c r="C56" t="n">
-        <v>-80681263993508</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>143772</v>
+      </c>
+      <c r="F56" t="n">
         <v>37897</v>
       </c>
-      <c r="E56" t="n">
-        <v>-80681263993508</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>503086</v>
+      </c>
+      <c r="H56" t="n">
         <v>47195</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2596,84 +3044,100 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>20170120000152</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub056</t>
+        </is>
       </c>
       <c r="B57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D57" t="n">
         <v>29701</v>
       </c>
-      <c r="C57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
+        <v>32505</v>
+      </c>
+      <c r="F57" t="n">
         <v>32460</v>
       </c>
-      <c r="E57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
+        <v>91939</v>
+      </c>
+      <c r="H57" t="n">
         <v>34017</v>
       </c>
-      <c r="G57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
+        <v>188947</v>
+      </c>
+      <c r="J57" t="n">
         <v>28165</v>
       </c>
-      <c r="I57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
+        <v>355554</v>
+      </c>
+      <c r="L57" t="n">
         <v>21854</v>
       </c>
-      <c r="K57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
+        <v>525668</v>
+      </c>
+      <c r="N57" t="n">
         <v>25712</v>
       </c>
-      <c r="M57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
+        <v>874011</v>
+      </c>
+      <c r="P57" t="n">
         <v>3504</v>
       </c>
-      <c r="O57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
+        <v>1043905</v>
+      </c>
+      <c r="R57" t="n">
         <v>656</v>
       </c>
-      <c r="Q57" t="n">
-        <v>-80680479979008</v>
-      </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
+        <v>1647423</v>
+      </c>
+      <c r="T57" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>20170825001844</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub057</t>
+        </is>
       </c>
       <c r="B58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>900</v>
+      </c>
+      <c r="D58" t="n">
         <v>8044</v>
       </c>
-      <c r="C58" t="n">
-        <v>-80683300003776</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
+        <v>52617</v>
+      </c>
+      <c r="F58" t="n">
         <v>8452</v>
       </c>
-      <c r="E58" t="n">
-        <v>-80683300003776</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
+        <v>1106297</v>
+      </c>
+      <c r="H58" t="n">
         <v>9374</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2684,28 +3148,36 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>20170125000984</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub058</t>
+        </is>
       </c>
       <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D59" t="n">
         <v>11479</v>
       </c>
-      <c r="C59" t="n">
-        <v>-80680499859936</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
+        <v>77976</v>
+      </c>
+      <c r="F59" t="n">
         <v>18889</v>
       </c>
-      <c r="E59" t="n">
-        <v>-80680499859936</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
+        <v>218824</v>
+      </c>
+      <c r="H59" t="n">
         <v>16984</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2716,28 +3188,36 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>20170912002314</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub059</t>
+        </is>
       </c>
       <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D60" t="n">
         <v>1396</v>
       </c>
-      <c r="C60" t="n">
-        <v>-80683647994856</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
+        <v>166001</v>
+      </c>
+      <c r="F60" t="n">
         <v>3226</v>
       </c>
-      <c r="E60" t="n">
-        <v>-80683647994856</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
+        <v>857187</v>
+      </c>
+      <c r="H60" t="n">
         <v>1488</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2748,128 +3228,152 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>20180109000613</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sub060</t>
+        </is>
       </c>
       <c r="B61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D61" t="n">
         <v>33604</v>
       </c>
-      <c r="C61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
+        <v>85414</v>
+      </c>
+      <c r="F61" t="n">
         <v>44899</v>
       </c>
-      <c r="E61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
+        <v>176480</v>
+      </c>
+      <c r="H61" t="n">
         <v>40634</v>
       </c>
-      <c r="G61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
+        <v>346644</v>
+      </c>
+      <c r="J61" t="n">
         <v>39878</v>
       </c>
-      <c r="I61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
+        <v>428026</v>
+      </c>
+      <c r="L61" t="n">
         <v>37116</v>
       </c>
-      <c r="K61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
+        <v>458762</v>
+      </c>
+      <c r="N61" t="n">
         <v>39921</v>
       </c>
-      <c r="M61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
+        <v>864399</v>
+      </c>
+      <c r="P61" t="n">
         <v>33087</v>
       </c>
-      <c r="O61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
+        <v>1059868</v>
+      </c>
+      <c r="R61" t="n">
         <v>22092</v>
       </c>
-      <c r="Q61" t="n">
-        <v>-80720435995252</v>
-      </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
+        <v>1472438</v>
+      </c>
+      <c r="T61" t="n">
         <v>20720</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>20180226000725</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sub061</t>
+        </is>
       </c>
       <c r="B62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D62" t="n">
         <v>15164</v>
       </c>
-      <c r="C62" t="n">
-        <v>-80720903995700</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
+        <v>23550</v>
+      </c>
+      <c r="F62" t="n">
         <v>21082</v>
       </c>
-      <c r="E62" t="n">
-        <v>-80720903995700</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
+        <v>93564</v>
+      </c>
+      <c r="H62" t="n">
         <v>53924</v>
       </c>
-      <c r="G62" t="n">
-        <v>-80720903995700</v>
-      </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
+        <v>258731</v>
+      </c>
+      <c r="J62" t="n">
         <v>69798</v>
       </c>
-      <c r="I62" t="n">
-        <v>-80720903995700</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
+        <v>690727</v>
+      </c>
+      <c r="L62" t="n">
         <v>89272</v>
       </c>
-      <c r="K62" t="n">
-        <v>-80720903995700</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
+        <v>1380998</v>
+      </c>
+      <c r="N62" t="n">
         <v>115006</v>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>20181221002264</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sub062</t>
+        </is>
       </c>
       <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D63" t="n">
         <v>10197</v>
       </c>
-      <c r="C63" t="n">
-        <v>-80724883965856</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
+        <v>65858</v>
+      </c>
+      <c r="F63" t="n">
         <v>13043</v>
       </c>
-      <c r="E63" t="n">
-        <v>-80724883965856</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
+        <v>650704</v>
+      </c>
+      <c r="H63" t="n">
         <v>21970</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2880,130 +3384,154 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>20181020001229</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sub063</t>
+        </is>
       </c>
       <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D64" t="n">
         <v>7625</v>
       </c>
-      <c r="C64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
+        <v>99942</v>
+      </c>
+      <c r="F64" t="n">
         <v>9134</v>
       </c>
-      <c r="E64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
+        <v>204732</v>
+      </c>
+      <c r="H64" t="n">
         <v>20963</v>
       </c>
-      <c r="G64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
+        <v>533816</v>
+      </c>
+      <c r="J64" t="n">
         <v>54349</v>
       </c>
-      <c r="I64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
+        <v>977710</v>
+      </c>
+      <c r="L64" t="n">
         <v>61937</v>
       </c>
-      <c r="K64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
+        <v>1562664</v>
+      </c>
+      <c r="N64" t="n">
         <v>49420</v>
       </c>
-      <c r="M64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
+        <v>3486045</v>
+      </c>
+      <c r="P64" t="n">
         <v>117530</v>
       </c>
-      <c r="O64" t="n">
-        <v>-80724079860916</v>
-      </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
+        <v>3520848</v>
+      </c>
+      <c r="R64" t="n">
         <v>47223</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>20180801000501</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sub064</t>
+        </is>
       </c>
       <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D65" t="n">
         <v>7239</v>
       </c>
-      <c r="C65" t="n">
-        <v>-80723203987604</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
+        <v>29000</v>
+      </c>
+      <c r="F65" t="n">
         <v>4015</v>
       </c>
-      <c r="E65" t="n">
-        <v>-80723203987604</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
+        <v>197594</v>
+      </c>
+      <c r="H65" t="n">
         <v>1169</v>
       </c>
-      <c r="G65" t="n">
-        <v>-80723203987604</v>
-      </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
+        <v>1123304</v>
+      </c>
+      <c r="J65" t="n">
         <v>1736</v>
       </c>
-      <c r="I65" t="n">
-        <v>-80723203987604</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
+        <v>2246219</v>
+      </c>
+      <c r="L65" t="n">
         <v>32</v>
       </c>
-      <c r="K65" t="n">
-        <v>-80723203987604</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
+        <v>3458355</v>
+      </c>
+      <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>20180131001727</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sub065</t>
+        </is>
       </c>
       <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D66" t="n">
         <v>45074</v>
       </c>
-      <c r="C66" t="n">
-        <v>-80720523978108</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
+        <v>63760</v>
+      </c>
+      <c r="F66" t="n">
         <v>38474</v>
       </c>
-      <c r="E66" t="n">
-        <v>-80720523978108</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
+        <v>428011</v>
+      </c>
+      <c r="H66" t="n">
         <v>47084</v>
       </c>
-      <c r="G66" t="n">
-        <v>-80720523978108</v>
-      </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
+        <v>1900883</v>
+      </c>
+      <c r="J66" t="n">
         <v>50230</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3012,68 +3540,84 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>20181208000909</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sub066</t>
+        </is>
       </c>
       <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>28800</v>
+      </c>
+      <c r="D67" t="n">
         <v>20309</v>
       </c>
-      <c r="C67" t="n">
-        <v>-80724831888436</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
+        <v>44719</v>
+      </c>
+      <c r="F67" t="n">
         <v>39676</v>
       </c>
-      <c r="E67" t="n">
-        <v>-80724831888436</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
+        <v>179616</v>
+      </c>
+      <c r="H67" t="n">
         <v>34176</v>
       </c>
-      <c r="G67" t="n">
-        <v>-80724831888436</v>
-      </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
+        <v>443144</v>
+      </c>
+      <c r="J67" t="n">
         <v>25422</v>
       </c>
-      <c r="I67" t="n">
-        <v>-80724831888436</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
+        <v>889779</v>
+      </c>
+      <c r="L67" t="n">
         <v>11795</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>20181207001317</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sub067</t>
+        </is>
       </c>
       <c r="B68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D68" t="n">
         <v>4242</v>
       </c>
-      <c r="C68" t="n">
-        <v>-80724827947668</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
+        <v>101930</v>
+      </c>
+      <c r="F68" t="n">
         <v>5065</v>
       </c>
-      <c r="E68" t="n">
-        <v>-80724827947668</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
+        <v>459139</v>
+      </c>
+      <c r="H68" t="n">
         <v>11560</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3084,120 +3628,144 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>20180412001426</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>sub068</t>
+        </is>
       </c>
       <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D69" t="n">
         <v>14681</v>
       </c>
-      <c r="C69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
+        <v>108085</v>
+      </c>
+      <c r="F69" t="n">
         <v>22769</v>
       </c>
-      <c r="E69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
+        <v>534785</v>
+      </c>
+      <c r="H69" t="n">
         <v>50903</v>
       </c>
-      <c r="G69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
+        <v>1572424</v>
+      </c>
+      <c r="J69" t="n">
         <v>56544</v>
       </c>
-      <c r="I69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
+        <v>1901762</v>
+      </c>
+      <c r="L69" t="n">
         <v>55916</v>
       </c>
-      <c r="K69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
+        <v>6576186</v>
+      </c>
+      <c r="N69" t="n">
         <v>162</v>
       </c>
-      <c r="M69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
+        <v>9511190</v>
+      </c>
+      <c r="P69" t="n">
         <v>451</v>
       </c>
-      <c r="O69" t="n">
-        <v>-80721647976904</v>
-      </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
+        <v>17284394</v>
+      </c>
+      <c r="R69" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>20180619001505</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sub069</t>
+        </is>
       </c>
       <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D70" t="n">
         <v>41370</v>
       </c>
-      <c r="C70" t="n">
-        <v>-80722475977220</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
+        <v>162995</v>
+      </c>
+      <c r="F70" t="n">
         <v>44764</v>
       </c>
-      <c r="E70" t="n">
-        <v>-80722475977220</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
+        <v>706202</v>
+      </c>
+      <c r="H70" t="n">
         <v>30013</v>
       </c>
-      <c r="G70" t="n">
-        <v>-80722475977220</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
+        <v>1222218</v>
+      </c>
+      <c r="J70" t="n">
         <v>20900</v>
       </c>
-      <c r="I70" t="n">
-        <v>-80722475977220</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
+        <v>1889738</v>
+      </c>
+      <c r="L70" t="n">
         <v>11519</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>20180427000292</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sub070</t>
+        </is>
       </c>
       <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D71" t="n">
         <v>8178</v>
       </c>
-      <c r="C71" t="n">
-        <v>-80721707957968</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
+        <v>34752</v>
+      </c>
+      <c r="F71" t="n">
         <v>10374</v>
       </c>
-      <c r="E71" t="n">
-        <v>-80721707957968</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
+        <v>1072648</v>
+      </c>
+      <c r="H71" t="n">
         <v>15157</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3208,72 +3776,88 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>20181103001264</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sub071</t>
+        </is>
       </c>
       <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D72" t="n">
         <v>27830</v>
       </c>
-      <c r="C72" t="n">
-        <v>-80724411976256</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
+        <v>58536</v>
+      </c>
+      <c r="F72" t="n">
         <v>33546</v>
       </c>
-      <c r="E72" t="n">
-        <v>-80724411976256</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
+        <v>161753</v>
+      </c>
+      <c r="H72" t="n">
         <v>7538</v>
       </c>
-      <c r="G72" t="n">
-        <v>-80724411976256</v>
-      </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
+        <v>749449</v>
+      </c>
+      <c r="J72" t="n">
         <v>66089</v>
       </c>
-      <c r="I72" t="n">
-        <v>-80724411976256</v>
-      </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
+        <v>925171</v>
+      </c>
+      <c r="L72" t="n">
         <v>70518</v>
       </c>
-      <c r="K72" t="n">
-        <v>-80724411976256</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
+        <v>3342602</v>
+      </c>
+      <c r="N72" t="n">
         <v>487</v>
       </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>20181007000826</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sub072</t>
+        </is>
       </c>
       <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D73" t="n">
         <v>10390</v>
       </c>
-      <c r="C73" t="n">
-        <v>-80724027974504</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
+        <v>70749</v>
+      </c>
+      <c r="F73" t="n">
         <v>18574</v>
       </c>
-      <c r="E73" t="n">
-        <v>-80724027974504</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
+        <v>670489</v>
+      </c>
+      <c r="H73" t="n">
         <v>16510</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3284,28 +3868,36 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>20180911001645</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sub073</t>
+        </is>
       </c>
       <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D74" t="n">
         <v>3974</v>
       </c>
-      <c r="C74" t="n">
-        <v>-80723643977780</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
+        <v>96460</v>
+      </c>
+      <c r="F74" t="n">
         <v>6752</v>
       </c>
-      <c r="E74" t="n">
-        <v>-80723643977780</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
+        <v>526460</v>
+      </c>
+      <c r="H74" t="n">
         <v>7129</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3316,192 +3908,232 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>20180719000020</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sub074</t>
+        </is>
       </c>
       <c r="B75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D75" t="n">
         <v>29318</v>
       </c>
-      <c r="C75" t="n">
-        <v>-80722875978480</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F75" t="n">
         <v>40785</v>
       </c>
-      <c r="E75" t="n">
-        <v>-80722875978480</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
+        <v>91618</v>
+      </c>
+      <c r="H75" t="n">
         <v>55014</v>
       </c>
-      <c r="G75" t="n">
-        <v>-80722875978480</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
+        <v>350282</v>
+      </c>
+      <c r="J75" t="n">
         <v>77423</v>
       </c>
-      <c r="I75" t="n">
-        <v>-80722875978480</v>
-      </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
+        <v>609508</v>
+      </c>
+      <c r="L75" t="n">
         <v>94712</v>
       </c>
-      <c r="K75" t="n">
-        <v>-80722875978480</v>
-      </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
+        <v>2407357</v>
+      </c>
+      <c r="N75" t="n">
         <v>67780</v>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>20180428001767</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sub075</t>
+        </is>
       </c>
       <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D76" t="n">
         <v>17633</v>
       </c>
-      <c r="C76" t="n">
-        <v>-80721711963868</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
+        <v>49198</v>
+      </c>
+      <c r="F76" t="n">
         <v>13297</v>
       </c>
-      <c r="E76" t="n">
-        <v>-80721711963868</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
+        <v>311051</v>
+      </c>
+      <c r="H76" t="n">
         <v>42038</v>
       </c>
-      <c r="G76" t="n">
-        <v>-80721711963868</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
+        <v>750969</v>
+      </c>
+      <c r="J76" t="n">
         <v>34310</v>
       </c>
-      <c r="I76" t="n">
-        <v>-80721711963868</v>
-      </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
+        <v>3339255</v>
+      </c>
+      <c r="L76" t="n">
         <v>11202</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>20180619002401</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sub076</t>
+        </is>
       </c>
       <c r="B77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D77" t="n">
         <v>10154</v>
       </c>
-      <c r="C77" t="n">
-        <v>-80722475988004</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
+        <v>57577</v>
+      </c>
+      <c r="F77" t="n">
         <v>12104</v>
       </c>
-      <c r="E77" t="n">
-        <v>-80722475988004</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
+        <v>229962</v>
+      </c>
+      <c r="H77" t="n">
         <v>11581</v>
       </c>
-      <c r="G77" t="n">
-        <v>-80722475988004</v>
-      </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
+        <v>744294</v>
+      </c>
+      <c r="J77" t="n">
         <v>14763</v>
       </c>
-      <c r="I77" t="n">
-        <v>-80722475988004</v>
-      </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
+        <v>1377103</v>
+      </c>
+      <c r="L77" t="n">
         <v>7061</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>20180503002304</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sub077</t>
+        </is>
       </c>
       <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D78" t="n">
         <v>9003</v>
       </c>
-      <c r="C78" t="n">
-        <v>-80722011980416</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
+        <v>50830</v>
+      </c>
+      <c r="F78" t="n">
         <v>31618</v>
       </c>
-      <c r="E78" t="n">
-        <v>-80722011980416</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
+        <v>421350</v>
+      </c>
+      <c r="H78" t="n">
         <v>27787</v>
       </c>
-      <c r="G78" t="n">
-        <v>-80722011980416</v>
-      </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
+        <v>596581</v>
+      </c>
+      <c r="J78" t="n">
         <v>45271</v>
       </c>
-      <c r="I78" t="n">
-        <v>-80722011980416</v>
-      </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
+        <v>2237049</v>
+      </c>
+      <c r="L78" t="n">
         <v>38415</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>20180929000040</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sub078</t>
+        </is>
       </c>
       <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D79" t="n">
         <v>2679</v>
       </c>
-      <c r="C79" t="n">
-        <v>-80723715928160</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
+        <v>112463</v>
+      </c>
+      <c r="F79" t="n">
         <v>552</v>
       </c>
-      <c r="E79" t="n">
-        <v>-80723715928160</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
+        <v>721156</v>
+      </c>
+      <c r="H79" t="n">
         <v>2378</v>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3512,68 +4144,84 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>20180929000037</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sub079</t>
+        </is>
       </c>
       <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D80" t="n">
         <v>7317</v>
       </c>
-      <c r="C80" t="n">
-        <v>-80723715985748</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
+        <v>100250</v>
+      </c>
+      <c r="F80" t="n">
         <v>6525</v>
       </c>
-      <c r="E80" t="n">
-        <v>-80723715985748</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
+        <v>787286</v>
+      </c>
+      <c r="H80" t="n">
         <v>9754</v>
       </c>
-      <c r="G80" t="n">
-        <v>-80723715985748</v>
-      </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
+        <v>1157675</v>
+      </c>
+      <c r="J80" t="n">
         <v>1794</v>
       </c>
-      <c r="I80" t="n">
-        <v>-80723715985748</v>
-      </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
+        <v>4158689</v>
+      </c>
+      <c r="L80" t="n">
         <v>53</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>20180130001917</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sub080</t>
+        </is>
       </c>
       <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D81" t="n">
         <v>12087</v>
       </c>
-      <c r="C81" t="n">
-        <v>-80720519950068</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
+        <v>74064</v>
+      </c>
+      <c r="F81" t="n">
         <v>13771</v>
       </c>
-      <c r="E81" t="n">
-        <v>-80720519950068</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
+        <v>994970</v>
+      </c>
+      <c r="H81" t="n">
         <v>5810</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3584,68 +4232,84 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>20180120000249</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sub081</t>
+        </is>
       </c>
       <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D82" t="n">
         <v>1091</v>
       </c>
-      <c r="C82" t="n">
-        <v>-80720479957796</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
+        <v>98718</v>
+      </c>
+      <c r="F82" t="n">
         <v>11074</v>
       </c>
-      <c r="E82" t="n">
-        <v>-80720479957796</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
+        <v>464437</v>
+      </c>
+      <c r="H82" t="n">
         <v>15033</v>
       </c>
-      <c r="G82" t="n">
-        <v>-80720479957796</v>
-      </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
+        <v>1151747</v>
+      </c>
+      <c r="J82" t="n">
         <v>8175</v>
       </c>
-      <c r="I82" t="n">
-        <v>-80720479957796</v>
-      </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
+        <v>15507261</v>
+      </c>
+      <c r="L82" t="n">
         <v>72247</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>20180221000793</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sub082</t>
+        </is>
       </c>
       <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D83" t="n">
         <v>33837</v>
       </c>
-      <c r="C83" t="n">
-        <v>-80720883988772</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
+        <v>86019</v>
+      </c>
+      <c r="F83" t="n">
         <v>28344</v>
       </c>
-      <c r="E83" t="n">
-        <v>-80720883988772</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
+        <v>686112</v>
+      </c>
+      <c r="H83" t="n">
         <v>30438</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3656,28 +4320,36 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>20181004000706</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sub083</t>
+        </is>
       </c>
       <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D84" t="n">
         <v>23326</v>
       </c>
-      <c r="C84" t="n">
-        <v>-80724015858824</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
+        <v>130853</v>
+      </c>
+      <c r="F84" t="n">
         <v>39556</v>
       </c>
-      <c r="E84" t="n">
-        <v>-80724015858824</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
+        <v>457147</v>
+      </c>
+      <c r="H84" t="n">
         <v>47580</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3688,118 +4360,142 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>20180716000006</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sub084</t>
+        </is>
       </c>
       <c r="B85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D85" t="n">
         <v>3216</v>
       </c>
-      <c r="C85" t="n">
-        <v>-80722863978424</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
+        <v>48393</v>
+      </c>
+      <c r="F85" t="n">
         <v>11371</v>
       </c>
-      <c r="E85" t="n">
-        <v>-80722863978424</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
+        <v>135856</v>
+      </c>
+      <c r="H85" t="n">
         <v>21244</v>
       </c>
-      <c r="G85" t="n">
-        <v>-80722863978424</v>
-      </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
+        <v>307485</v>
+      </c>
+      <c r="J85" t="n">
         <v>30080</v>
       </c>
-      <c r="I85" t="n">
-        <v>-80722863978424</v>
-      </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
+        <v>652621</v>
+      </c>
+      <c r="L85" t="n">
         <v>39377</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>20181127002511</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sub085</t>
+        </is>
       </c>
       <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D86" t="n">
         <v>53627</v>
       </c>
-      <c r="C86" t="n">
-        <v>-80724507995644</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
+        <v>7907</v>
+      </c>
+      <c r="F86" t="n">
         <v>46988</v>
       </c>
-      <c r="E86" t="n">
-        <v>-80724507995644</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
+        <v>56208</v>
+      </c>
+      <c r="H86" t="n">
         <v>58358</v>
       </c>
-      <c r="G86" t="n">
-        <v>-80724507995644</v>
-      </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
+        <v>416863</v>
+      </c>
+      <c r="J86" t="n">
         <v>53073</v>
       </c>
-      <c r="I86" t="n">
-        <v>-80724507995644</v>
-      </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
+        <v>746391</v>
+      </c>
+      <c r="L86" t="n">
         <v>18619</v>
       </c>
-      <c r="K86" t="n">
-        <v>-80724507995644</v>
-      </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
+        <v>1192490</v>
+      </c>
+      <c r="N86" t="n">
         <v>15428</v>
       </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>20180108000002</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sub086</t>
+        </is>
       </c>
       <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D87" t="n">
         <v>3327</v>
       </c>
-      <c r="C87" t="n">
-        <v>-80720431956808</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
+        <v>66281</v>
+      </c>
+      <c r="F87" t="n">
         <v>1154</v>
       </c>
-      <c r="E87" t="n">
-        <v>-80720431956808</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
+        <v>645797</v>
+      </c>
+      <c r="H87" t="n">
         <v>6076</v>
       </c>
-      <c r="G87" t="n">
-        <v>-80720431956808</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
+        <v>1253871</v>
+      </c>
+      <c r="J87" t="n">
         <v>2490</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -3808,68 +4504,84 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>20180216000198</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sub087</t>
+        </is>
       </c>
       <c r="B88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D88" t="n">
         <v>398</v>
       </c>
-      <c r="C88" t="n">
-        <v>-80720863979192</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
+        <v>59575</v>
+      </c>
+      <c r="F88" t="n">
         <v>1776</v>
       </c>
-      <c r="E88" t="n">
-        <v>-80720863979192</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
+        <v>1009614</v>
+      </c>
+      <c r="H88" t="n">
         <v>4054</v>
       </c>
-      <c r="G88" t="n">
-        <v>-80720863979192</v>
-      </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
+        <v>1613771</v>
+      </c>
+      <c r="J88" t="n">
         <v>4603</v>
       </c>
-      <c r="I88" t="n">
-        <v>-80720863979192</v>
-      </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
+        <v>9909519</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>20180521000314</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sub088</t>
+        </is>
       </c>
       <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D89" t="n">
         <v>23528</v>
       </c>
-      <c r="C89" t="n">
-        <v>-80722083857256</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
+        <v>125127</v>
+      </c>
+      <c r="F89" t="n">
         <v>13051</v>
       </c>
-      <c r="E89" t="n">
-        <v>-80722083857256</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
+        <v>407161</v>
+      </c>
+      <c r="H89" t="n">
         <v>29340</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3880,34 +4592,42 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>20180314002318</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
       </c>
       <c r="B90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D90" t="n">
         <v>9695</v>
       </c>
-      <c r="C90" t="n">
-        <v>-80721255987672</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
+        <v>77090</v>
+      </c>
+      <c r="F90" t="n">
         <v>17750</v>
       </c>
-      <c r="E90" t="n">
-        <v>-80721255987672</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
+        <v>1021947</v>
+      </c>
+      <c r="H90" t="n">
         <v>67976</v>
       </c>
-      <c r="G90" t="n">
-        <v>-80721255987672</v>
-      </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
+        <v>1951591</v>
+      </c>
+      <c r="J90" t="n">
         <v>21797</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -3916,34 +4636,42 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>20180910002366</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sub090</t>
+        </is>
       </c>
       <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D91" t="n">
         <v>29614</v>
       </c>
-      <c r="C91" t="n">
-        <v>-80723639980664</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
+        <v>47426</v>
+      </c>
+      <c r="F91" t="n">
         <v>76322</v>
       </c>
-      <c r="E91" t="n">
-        <v>-80723639980664</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
+        <v>569611</v>
+      </c>
+      <c r="H91" t="n">
         <v>16378</v>
       </c>
-      <c r="G91" t="n">
-        <v>-80723639980664</v>
-      </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
+        <v>828342</v>
+      </c>
+      <c r="J91" t="n">
         <v>4787</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -3952,34 +4680,42 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>20181019001130</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sub091</t>
+        </is>
       </c>
       <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D92" t="n">
         <v>5318</v>
       </c>
-      <c r="C92" t="n">
-        <v>-80724075961320</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
+        <v>93912</v>
+      </c>
+      <c r="F92" t="n">
         <v>11482</v>
       </c>
-      <c r="E92" t="n">
-        <v>-80724075961320</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
+        <v>522173</v>
+      </c>
+      <c r="H92" t="n">
         <v>11741</v>
       </c>
-      <c r="G92" t="n">
-        <v>-80724075961320</v>
-      </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
+        <v>1733098</v>
+      </c>
+      <c r="J92" t="n">
         <v>10975</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -3988,34 +4724,42 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>20181116001089</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
       </c>
       <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D93" t="n">
         <v>1084</v>
       </c>
-      <c r="C93" t="n">
-        <v>-80724463975556</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
+        <v>42929</v>
+      </c>
+      <c r="F93" t="n">
         <v>711</v>
       </c>
-      <c r="E93" t="n">
-        <v>-80724463975556</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
+        <v>283580</v>
+      </c>
+      <c r="H93" t="n">
         <v>38232</v>
       </c>
-      <c r="G93" t="n">
-        <v>-80724463975556</v>
-      </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
+        <v>624867</v>
+      </c>
+      <c r="J93" t="n">
         <v>52388</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -4024,192 +4768,232 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>20181214000208</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>sub093</t>
+        </is>
       </c>
       <c r="B94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D94" t="n">
         <v>4923</v>
       </c>
-      <c r="C94" t="n">
-        <v>-80724855993632</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
+        <v>12880</v>
+      </c>
+      <c r="F94" t="n">
         <v>3943</v>
       </c>
-      <c r="E94" t="n">
-        <v>-80724855993632</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
+        <v>91730</v>
+      </c>
+      <c r="H94" t="n">
         <v>6974</v>
       </c>
-      <c r="G94" t="n">
-        <v>-80724855993632</v>
-      </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
+        <v>177628</v>
+      </c>
+      <c r="J94" t="n">
         <v>9355</v>
       </c>
-      <c r="I94" t="n">
-        <v>-80724855993632</v>
-      </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
+        <v>976218</v>
+      </c>
+      <c r="L94" t="n">
         <v>3258</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>20180412001795</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
       </c>
       <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D95" t="n">
         <v>7667</v>
       </c>
-      <c r="C95" t="n">
-        <v>-80721647935180</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
+        <v>104079</v>
+      </c>
+      <c r="F95" t="n">
         <v>15664</v>
       </c>
-      <c r="E95" t="n">
-        <v>-80721647935180</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
+        <v>363066</v>
+      </c>
+      <c r="H95" t="n">
         <v>18164</v>
       </c>
-      <c r="G95" t="n">
-        <v>-80721647935180</v>
-      </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
+        <v>949664</v>
+      </c>
+      <c r="J95" t="n">
         <v>8693</v>
       </c>
-      <c r="I95" t="n">
-        <v>-80721647935180</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
+        <v>15577264</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>20180316001329</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
       </c>
       <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D96" t="n">
         <v>13198</v>
       </c>
-      <c r="C96" t="n">
-        <v>-80721263990916</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
+        <v>26754</v>
+      </c>
+      <c r="F96" t="n">
         <v>82848</v>
       </c>
-      <c r="E96" t="n">
-        <v>-80721263990916</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
+        <v>338913</v>
+      </c>
+      <c r="H96" t="n">
         <v>99131</v>
       </c>
-      <c r="G96" t="n">
-        <v>-80721263990916</v>
-      </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
+        <v>1118711</v>
+      </c>
+      <c r="J96" t="n">
         <v>168138</v>
       </c>
-      <c r="I96" t="n">
-        <v>-80721263990916</v>
-      </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
+        <v>2002074</v>
+      </c>
+      <c r="L96" t="n">
         <v>125247</v>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>20180802001789</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
       </c>
       <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D97" t="n">
         <v>5951</v>
       </c>
-      <c r="C97" t="n">
-        <v>-80723207992756</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
+        <v>49541</v>
+      </c>
+      <c r="F97" t="n">
         <v>6094</v>
       </c>
-      <c r="E97" t="n">
-        <v>-80723207992756</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
+        <v>316729</v>
+      </c>
+      <c r="H97" t="n">
         <v>9911</v>
       </c>
-      <c r="G97" t="n">
-        <v>-80723207992756</v>
-      </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
+        <v>918429</v>
+      </c>
+      <c r="J97" t="n">
         <v>11687</v>
       </c>
-      <c r="I97" t="n">
-        <v>-80723207992756</v>
-      </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
+        <v>1524604</v>
+      </c>
+      <c r="L97" t="n">
         <v>231</v>
       </c>
-      <c r="K97" t="n">
-        <v>-80723207992756</v>
-      </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
+        <v>2144314</v>
+      </c>
+      <c r="N97" t="n">
         <v>0</v>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>20181010000767</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
       </c>
       <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D98" t="n">
         <v>10227</v>
       </c>
-      <c r="C98" t="n">
-        <v>-80724039959868</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
+        <v>114932</v>
+      </c>
+      <c r="F98" t="n">
         <v>8635</v>
       </c>
-      <c r="E98" t="n">
-        <v>-80724039959868</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
+        <v>617041</v>
+      </c>
+      <c r="H98" t="n">
         <v>1316</v>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4220,68 +5004,84 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>20180612002507</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
       </c>
       <c r="B99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D99" t="n">
         <v>39868</v>
       </c>
-      <c r="C99" t="n">
-        <v>-80722447974028</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
+        <v>153924</v>
+      </c>
+      <c r="F99" t="n">
         <v>29007</v>
       </c>
-      <c r="E99" t="n">
-        <v>-80722447974028</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
+        <v>675565</v>
+      </c>
+      <c r="H99" t="n">
         <v>26426</v>
       </c>
-      <c r="G99" t="n">
-        <v>-80722447974028</v>
-      </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
+        <v>2053789</v>
+      </c>
+      <c r="J99" t="n">
         <v>40666</v>
       </c>
-      <c r="I99" t="n">
-        <v>-80722447974028</v>
-      </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
+        <v>3252126</v>
+      </c>
+      <c r="L99" t="n">
         <v>17288</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>20180620002296</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
       </c>
       <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D100" t="n">
         <v>9653</v>
       </c>
-      <c r="C100" t="n">
-        <v>-80722479965984</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
+        <v>63622</v>
+      </c>
+      <c r="F100" t="n">
         <v>19517</v>
       </c>
-      <c r="E100" t="n">
-        <v>-80722479965984</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
+        <v>153106</v>
+      </c>
+      <c r="H100" t="n">
         <v>30933</v>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4292,28 +5092,36 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>20180314000010</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
       </c>
       <c r="B101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D101" t="n">
         <v>7367</v>
       </c>
-      <c r="C101" t="n">
-        <v>-80721255992840</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
+        <v>125032</v>
+      </c>
+      <c r="F101" t="n">
         <v>6033</v>
       </c>
-      <c r="E101" t="n">
-        <v>-80721255992840</v>
-      </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
+        <v>710052</v>
+      </c>
+      <c r="H101" t="n">
         <v>3191</v>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4324,16 +5132,24 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>20180311000432</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
       </c>
       <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D102" t="n">
         <v>9700</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -4348,16 +5164,24 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>20180708000024</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sub102</t>
+        </is>
       </c>
       <c r="B103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D103" t="n">
         <v>2042</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -4372,16 +5196,24 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>20181015001677</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sub103</t>
+        </is>
       </c>
       <c r="B104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D104" t="n">
         <v>1295</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -4396,16 +5228,24 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>20190105000694</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sub104</t>
+        </is>
       </c>
       <c r="B105" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D105" t="n">
         <v>35063</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -4420,16 +5260,24 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>20190108002459</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sub105</t>
+        </is>
       </c>
       <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D106" t="n">
         <v>675</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -4444,16 +5292,24 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>20190519000853</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sub106</t>
+        </is>
       </c>
       <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D107" t="n">
         <v>16630</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4468,16 +5324,24 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>20190526000209</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sub107</t>
+        </is>
       </c>
       <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D108" t="n">
         <v>31475</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -4492,16 +5356,24 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>20190701002502</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sub108</t>
+        </is>
       </c>
       <c r="B109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>19800</v>
+      </c>
+      <c r="D109" t="n">
         <v>7907</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -4516,16 +5388,24 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>20190716000013</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sub109</t>
+        </is>
       </c>
       <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D110" t="n">
         <v>556</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4540,16 +5420,24 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>20190717001385</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sub110</t>
+        </is>
       </c>
       <c r="B111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D111" t="n">
         <v>6092</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -4564,16 +5452,24 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>20190727000556</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sub111</t>
+        </is>
       </c>
       <c r="B112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D112" t="n">
         <v>49965</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -4588,16 +5484,24 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>20190803000014</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sub112</t>
+        </is>
       </c>
       <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D113" t="n">
         <v>30776</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -4612,16 +5516,24 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>20190901000442</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sub113</t>
+        </is>
       </c>
       <c r="B114" t="n">
+        <v>11</v>
+      </c>
+      <c r="C114" t="n">
+        <v>39600</v>
+      </c>
+      <c r="D114" t="n">
         <v>21395</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -4636,16 +5548,24 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>20190903000373</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sub114</t>
+        </is>
       </c>
       <c r="B115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>28800</v>
+      </c>
+      <c r="D115" t="n">
         <v>31850</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -4660,16 +5580,24 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>20190904002299</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>sub115</t>
+        </is>
       </c>
       <c r="B116" t="n">
+        <v>4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D116" t="n">
         <v>58419</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4684,16 +5612,24 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>20190906001283</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>sub116</t>
+        </is>
       </c>
       <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D117" t="n">
         <v>10367</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -4708,16 +5644,24 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>20190917002094</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sub117</t>
+        </is>
       </c>
       <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D118" t="n">
         <v>11109</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -4732,16 +5676,24 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>20190923002580</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sub118</t>
+        </is>
       </c>
       <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D119" t="n">
         <v>40184</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -4756,16 +5708,24 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>20191003000352</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>sub119</t>
+        </is>
       </c>
       <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D120" t="n">
         <v>8737</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -4780,16 +5740,24 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>20191004001025</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sub120</t>
+        </is>
       </c>
       <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D121" t="n">
         <v>19079</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -4804,16 +5772,24 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>20191027000468</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sub121</t>
+        </is>
       </c>
       <c r="B122" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D122" t="n">
         <v>2949</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -4828,16 +5804,24 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>20191028002738</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sub122</t>
+        </is>
       </c>
       <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D123" t="n">
         <v>11897</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -4852,16 +5836,24 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>20191024001280</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sub123</t>
+        </is>
       </c>
       <c r="B124" t="n">
+        <v>24</v>
+      </c>
+      <c r="C124" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D124" t="n">
         <v>24300</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -4876,16 +5868,24 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>20191030001526</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sub124</t>
+        </is>
       </c>
       <c r="B125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D125" t="n">
         <v>1239</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4900,16 +5900,24 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>20191111002510</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sub125</t>
+        </is>
       </c>
       <c r="B126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D126" t="n">
         <v>14082</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
@@ -4924,16 +5932,24 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>20191126002590</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sub126</t>
+        </is>
       </c>
       <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D127" t="n">
         <v>7036</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -4948,16 +5964,24 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>20191127002176</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sub127</t>
+        </is>
       </c>
       <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D128" t="n">
         <v>12787</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
@@ -4972,16 +5996,24 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>20191208000592</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sub128</t>
+        </is>
       </c>
       <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D129" t="n">
         <v>13018</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4996,16 +6028,24 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>20191224000008</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sub129</t>
+        </is>
       </c>
       <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D130" t="n">
         <v>51879</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -5020,16 +6060,24 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>20191228000237</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sub130</t>
+        </is>
       </c>
       <c r="B131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D131" t="n">
         <v>33007</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -5044,22 +6092,30 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>20171220002173</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sub131</t>
+        </is>
       </c>
       <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D132" t="n">
         <v>21562</v>
       </c>
-      <c r="C132" t="n">
-        <v>-80684879979892</v>
-      </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
+        <v>53347670</v>
+      </c>
+      <c r="F132" t="n">
         <v>36582</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -5072,22 +6128,30 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>20170107000727</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sub132</t>
+        </is>
       </c>
       <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D133" t="n">
         <v>7300</v>
       </c>
-      <c r="C133" t="n">
-        <v>-80680427988508</v>
-      </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
+        <v>1976285</v>
+      </c>
+      <c r="F133" t="n">
         <v>17429</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -5100,68 +6164,84 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>20200112000228</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sub133</t>
+        </is>
       </c>
       <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D134" t="n">
         <v>18639</v>
       </c>
-      <c r="C134" t="n">
-        <v>-80800447957712</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
+        <v>96833</v>
+      </c>
+      <c r="F134" t="n">
         <v>17583</v>
       </c>
-      <c r="E134" t="n">
-        <v>-80800447957712</v>
-      </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
+        <v>443254</v>
+      </c>
+      <c r="H134" t="n">
         <v>22400</v>
       </c>
-      <c r="G134" t="n">
-        <v>-80800447957712</v>
-      </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
+        <v>782610</v>
+      </c>
+      <c r="J134" t="n">
         <v>22437</v>
       </c>
-      <c r="I134" t="n">
-        <v>-80800447957712</v>
-      </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
+        <v>4502367</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>20200101000392</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>sub134</t>
+        </is>
       </c>
       <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D135" t="n">
         <v>11179</v>
       </c>
-      <c r="C135" t="n">
-        <v>-80800403929568</v>
-      </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
+        <v>73269</v>
+      </c>
+      <c r="F135" t="n">
         <v>11453</v>
       </c>
-      <c r="E135" t="n">
-        <v>-80800403929568</v>
-      </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
+        <v>764146</v>
+      </c>
+      <c r="H135" t="n">
         <v>3342</v>
       </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5172,74 +6252,90 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>20201130003288</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>sub135</t>
+        </is>
       </c>
       <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D136" t="n">
         <v>3661</v>
       </c>
-      <c r="C136" t="n">
-        <v>-80804519984352</v>
-      </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
+        <v>17804</v>
+      </c>
+      <c r="F136" t="n">
         <v>7003</v>
       </c>
-      <c r="E136" t="n">
-        <v>-80804519984352</v>
-      </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
+        <v>251311</v>
+      </c>
+      <c r="H136" t="n">
         <v>12213</v>
       </c>
-      <c r="G136" t="n">
-        <v>-80804519984352</v>
-      </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
+        <v>402001</v>
+      </c>
+      <c r="J136" t="n">
         <v>12485</v>
       </c>
-      <c r="I136" t="n">
-        <v>-80804519984352</v>
-      </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
+        <v>749301</v>
+      </c>
+      <c r="L136" t="n">
         <v>6365</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>20201203002778</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>sub136</t>
+        </is>
       </c>
       <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D137" t="n">
         <v>10084</v>
       </c>
-      <c r="C137" t="n">
-        <v>-80804811982312</v>
-      </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F137" t="n">
         <v>32322</v>
       </c>
-      <c r="E137" t="n">
-        <v>-80804811982312</v>
-      </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
+        <v>396071</v>
+      </c>
+      <c r="H137" t="n">
         <v>42163</v>
       </c>
-      <c r="G137" t="n">
-        <v>-80804811982312</v>
-      </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
+        <v>1711140</v>
+      </c>
+      <c r="J137" t="n">
         <v>88306</v>
       </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -5248,28 +6344,36 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>20201217002368</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sub137</t>
+        </is>
       </c>
       <c r="B138" t="n">
+        <v>24</v>
+      </c>
+      <c r="C138" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D138" t="n">
         <v>4101</v>
       </c>
-      <c r="C138" t="n">
-        <v>-80804867663872</v>
-      </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
+        <v>151055</v>
+      </c>
+      <c r="F138" t="n">
         <v>6057</v>
       </c>
-      <c r="E138" t="n">
-        <v>-80804867663872</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
+        <v>747817</v>
+      </c>
+      <c r="H138" t="n">
         <v>3202</v>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5280,34 +6384,42 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>20200403000012</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>sub138</t>
+        </is>
       </c>
       <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D139" t="n">
         <v>762</v>
       </c>
-      <c r="C139" t="n">
-        <v>-80801611956848</v>
-      </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
+        <v>42391</v>
+      </c>
+      <c r="F139" t="n">
         <v>1644</v>
       </c>
-      <c r="E139" t="n">
-        <v>-80801611956848</v>
-      </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
+        <v>103777</v>
+      </c>
+      <c r="H139" t="n">
         <v>1763</v>
       </c>
-      <c r="G139" t="n">
-        <v>-80801611956848</v>
-      </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
+        <v>363948</v>
+      </c>
+      <c r="J139" t="n">
         <v>4605</v>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -5316,74 +6428,90 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>20200814000015</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sub139</t>
+        </is>
       </c>
       <c r="B140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16200</v>
+      </c>
+      <c r="D140" t="n">
         <v>13402</v>
       </c>
-      <c r="C140" t="n">
-        <v>-80803255935260</v>
-      </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
+        <v>49822</v>
+      </c>
+      <c r="F140" t="n">
         <v>54354</v>
       </c>
-      <c r="E140" t="n">
-        <v>-80803255935260</v>
-      </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
+        <v>128845</v>
+      </c>
+      <c r="H140" t="n">
         <v>71265</v>
       </c>
-      <c r="G140" t="n">
-        <v>-80803255935260</v>
-      </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
+        <v>491058</v>
+      </c>
+      <c r="J140" t="n">
         <v>57072</v>
       </c>
-      <c r="I140" t="n">
-        <v>-80803255935260</v>
-      </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
+        <v>1011895</v>
+      </c>
+      <c r="L140" t="n">
         <v>51239</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>20200412000331</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>sub140</t>
+        </is>
       </c>
       <c r="B141" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D141" t="n">
         <v>3497</v>
       </c>
-      <c r="C141" t="n">
-        <v>-80801647996572</v>
-      </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
+        <v>61567</v>
+      </c>
+      <c r="F141" t="n">
         <v>6618</v>
       </c>
-      <c r="E141" t="n">
-        <v>-80801647996572</v>
-      </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
+        <v>422626</v>
+      </c>
+      <c r="H141" t="n">
         <v>11664</v>
       </c>
-      <c r="G141" t="n">
-        <v>-80801647996572</v>
-      </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
+        <v>771931</v>
+      </c>
+      <c r="J141" t="n">
         <v>10201</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -5392,28 +6520,36 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>20200711001264</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>sub141</t>
+        </is>
       </c>
       <c r="B142" t="n">
+        <v>14</v>
+      </c>
+      <c r="C142" t="n">
+        <v>50400</v>
+      </c>
+      <c r="D142" t="n">
         <v>33501</v>
       </c>
-      <c r="C142" t="n">
-        <v>-80802843803456</v>
-      </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
+        <v>179057</v>
+      </c>
+      <c r="F142" t="n">
         <v>34596</v>
       </c>
-      <c r="E142" t="n">
-        <v>-80802843803456</v>
-      </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
+        <v>435228</v>
+      </c>
+      <c r="H142" t="n">
         <v>60482</v>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5424,152 +6560,184 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>20200411000014</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>sub142</t>
+        </is>
       </c>
       <c r="B143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D143" t="n">
         <v>38120</v>
       </c>
-      <c r="C143" t="n">
-        <v>-80801643978456</v>
-      </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
+        <v>37041</v>
+      </c>
+      <c r="F143" t="n">
         <v>63495</v>
       </c>
-      <c r="E143" t="n">
-        <v>-80801643978456</v>
-      </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
+        <v>131107</v>
+      </c>
+      <c r="H143" t="n">
         <v>57174</v>
       </c>
-      <c r="G143" t="n">
-        <v>-80801643978456</v>
-      </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
+        <v>637973</v>
+      </c>
+      <c r="J143" t="n">
         <v>116414</v>
       </c>
-      <c r="I143" t="n">
-        <v>-80801643978456</v>
-      </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
+        <v>1048209</v>
+      </c>
+      <c r="L143" t="n">
         <v>14664</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>20200214000572</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sub143</t>
+        </is>
       </c>
       <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D144" t="n">
         <v>25806</v>
       </c>
-      <c r="C144" t="n">
-        <v>-80800855959088</v>
-      </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
+        <v>82745</v>
+      </c>
+      <c r="F144" t="n">
         <v>27125</v>
       </c>
-      <c r="E144" t="n">
-        <v>-80800855959088</v>
-      </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
+        <v>238653</v>
+      </c>
+      <c r="H144" t="n">
         <v>32672</v>
       </c>
-      <c r="G144" t="n">
-        <v>-80800855959088</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
+        <v>427848</v>
+      </c>
+      <c r="J144" t="n">
         <v>26229</v>
       </c>
-      <c r="I144" t="n">
-        <v>-80800855959088</v>
-      </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
+        <v>1466000</v>
+      </c>
+      <c r="L144" t="n">
         <v>4034</v>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>20200124000041</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>sub144</t>
+        </is>
       </c>
       <c r="B145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D145" t="n">
         <v>28944</v>
       </c>
-      <c r="C145" t="n">
-        <v>-80800495978564</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
+        <v>98818</v>
+      </c>
+      <c r="F145" t="n">
         <v>34246</v>
       </c>
-      <c r="E145" t="n">
-        <v>-80800495978564</v>
-      </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
+        <v>354557</v>
+      </c>
+      <c r="H145" t="n">
         <v>16214</v>
       </c>
-      <c r="G145" t="n">
-        <v>-80800495978564</v>
-      </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
+        <v>1151763</v>
+      </c>
+      <c r="J145" t="n">
         <v>6968</v>
       </c>
-      <c r="I145" t="n">
-        <v>-80800495978564</v>
-      </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
+        <v>2258722</v>
+      </c>
+      <c r="L145" t="n">
         <v>5123</v>
       </c>
-      <c r="K145" t="n">
-        <v>-80800495978564</v>
-      </c>
-      <c r="L145" t="n">
+      <c r="M145" t="n">
+        <v>29042775</v>
+      </c>
+      <c r="N145" t="n">
         <v>0</v>
       </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>20200613001086</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>sub145</t>
+        </is>
       </c>
       <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D146" t="n">
         <v>1097</v>
       </c>
-      <c r="C146" t="n">
-        <v>-80802451831544</v>
-      </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
+        <v>183563</v>
+      </c>
+      <c r="F146" t="n">
         <v>5288</v>
       </c>
-      <c r="E146" t="n">
-        <v>-80802451831544</v>
-      </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
+        <v>695654</v>
+      </c>
+      <c r="H146" t="n">
         <v>404</v>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5580,78 +6748,94 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>20200531000253</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>sub146</t>
+        </is>
       </c>
       <c r="B147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D147" t="n">
         <v>118</v>
       </c>
-      <c r="C147" t="n">
-        <v>-80802123979412</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
+        <v>27929</v>
+      </c>
+      <c r="F147" t="n">
         <v>38</v>
       </c>
-      <c r="E147" t="n">
-        <v>-80802123979412</v>
-      </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
+        <v>77924</v>
+      </c>
+      <c r="H147" t="n">
         <v>81</v>
       </c>
-      <c r="G147" t="n">
-        <v>-80802123979412</v>
-      </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
+        <v>679220</v>
+      </c>
+      <c r="J147" t="n">
         <v>98</v>
       </c>
-      <c r="I147" t="n">
-        <v>-80802123979412</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
       <c r="K147" t="n">
-        <v>-80802123979412</v>
+        <v>1630447</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
       </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>5262989</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>20201220000155</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>sub147</t>
+        </is>
       </c>
       <c r="B148" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D148" t="n">
         <v>9837</v>
       </c>
-      <c r="C148" t="n">
-        <v>-80804879996300</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
+        <v>31907</v>
+      </c>
+      <c r="F148" t="n">
         <v>32668</v>
       </c>
-      <c r="E148" t="n">
-        <v>-80804879996300</v>
-      </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
+        <v>83358</v>
+      </c>
+      <c r="H148" t="n">
         <v>39708</v>
       </c>
-      <c r="G148" t="n">
-        <v>-80804879996300</v>
-      </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
+        <v>255329</v>
+      </c>
+      <c r="J148" t="n">
         <v>46431</v>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -5660,34 +6844,42 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>20200609001016</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>sub148</t>
+        </is>
       </c>
       <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D149" t="n">
         <v>4137</v>
       </c>
-      <c r="C149" t="n">
-        <v>-80802435975264</v>
-      </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
+        <v>186863</v>
+      </c>
+      <c r="F149" t="n">
         <v>8607</v>
       </c>
-      <c r="E149" t="n">
-        <v>-80802435975264</v>
-      </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
+        <v>787645</v>
+      </c>
+      <c r="H149" t="n">
         <v>4721</v>
       </c>
-      <c r="G149" t="n">
-        <v>-80802435975264</v>
-      </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
+        <v>2339803</v>
+      </c>
+      <c r="J149" t="n">
         <v>14902</v>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -5696,22 +6888,30 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>20200409001101</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>sub149</t>
+        </is>
       </c>
       <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D150" t="n">
         <v>12928</v>
       </c>
-      <c r="C150" t="n">
-        <v>-80801635961204</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
+        <v>31789</v>
+      </c>
+      <c r="F150" t="n">
         <v>8780</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5724,22 +6924,30 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>20200118000372</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>sub150</t>
+        </is>
       </c>
       <c r="B151" t="n">
+        <v>24</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D151" t="n">
         <v>7909</v>
       </c>
-      <c r="C151" t="n">
-        <v>-80800471655888</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
+        <v>170319</v>
+      </c>
+      <c r="F151" t="n">
         <v>8207</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5752,28 +6960,36 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>20201023001238</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>sub151</t>
+        </is>
       </c>
       <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D152" t="n">
         <v>25187</v>
       </c>
-      <c r="C152" t="n">
-        <v>-80804091976152</v>
-      </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
+        <v>29629</v>
+      </c>
+      <c r="F152" t="n">
         <v>33038</v>
       </c>
-      <c r="E152" t="n">
-        <v>-80804091976152</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
+        <v>112169</v>
+      </c>
+      <c r="H152" t="n">
         <v>32200</v>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5784,28 +7000,36 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>20201109000009</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>sub152</t>
+        </is>
       </c>
       <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D153" t="n">
         <v>21341</v>
       </c>
-      <c r="C153" t="n">
-        <v>-80804435942436</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
+        <v>68462</v>
+      </c>
+      <c r="F153" t="n">
         <v>9073</v>
       </c>
-      <c r="E153" t="n">
-        <v>-80804435942436</v>
-      </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
+        <v>678219</v>
+      </c>
+      <c r="H153" t="n">
         <v>22191</v>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5816,28 +7040,36 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>20201212001420</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>sub153</t>
+        </is>
       </c>
       <c r="B154" t="n">
+        <v>7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25200</v>
+      </c>
+      <c r="D154" t="n">
         <v>56109</v>
       </c>
-      <c r="C154" t="n">
-        <v>-80804847904880</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
+        <v>154504</v>
+      </c>
+      <c r="F154" t="n">
         <v>37111</v>
       </c>
-      <c r="E154" t="n">
-        <v>-80804847904880</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
+        <v>231913</v>
+      </c>
+      <c r="H154" t="n">
         <v>59082</v>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5848,118 +7080,142 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>20201129000299</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>sub154</t>
+        </is>
       </c>
       <c r="B155" t="n">
+        <v>21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>75600</v>
+      </c>
+      <c r="D155" t="n">
         <v>11576</v>
       </c>
-      <c r="C155" t="n">
-        <v>-80804515698796</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
+        <v>233339</v>
+      </c>
+      <c r="F155" t="n">
         <v>19641</v>
       </c>
-      <c r="E155" t="n">
-        <v>-80804515698796</v>
-      </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
+        <v>510536</v>
+      </c>
+      <c r="H155" t="n">
         <v>21113</v>
       </c>
-      <c r="G155" t="n">
-        <v>-80804515698796</v>
-      </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
+        <v>673664</v>
+      </c>
+      <c r="J155" t="n">
         <v>13895</v>
       </c>
-      <c r="I155" t="n">
-        <v>-80804515698796</v>
-      </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
+        <v>1291780</v>
+      </c>
+      <c r="L155" t="n">
         <v>61733</v>
       </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>20200301000025</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>sub155</t>
+        </is>
       </c>
       <c r="B156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11880</v>
+      </c>
+      <c r="D156" t="n">
         <v>25699</v>
       </c>
-      <c r="C156" t="n">
-        <v>-80801203952580</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
+        <v>124139</v>
+      </c>
+      <c r="F156" t="n">
         <v>52007</v>
       </c>
-      <c r="E156" t="n">
-        <v>-80801203952580</v>
-      </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
+        <v>735039</v>
+      </c>
+      <c r="H156" t="n">
         <v>97158</v>
       </c>
-      <c r="G156" t="n">
-        <v>-80801203952580</v>
-      </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
+        <v>1335092</v>
+      </c>
+      <c r="J156" t="n">
         <v>114352</v>
       </c>
-      <c r="I156" t="n">
-        <v>-80801203952580</v>
-      </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
+        <v>1678275</v>
+      </c>
+      <c r="L156" t="n">
         <v>109019</v>
       </c>
-      <c r="K156" t="n">
-        <v>-80801203952580</v>
-      </c>
-      <c r="L156" t="n">
+      <c r="M156" t="n">
+        <v>9285528</v>
+      </c>
+      <c r="N156" t="n">
         <v>0</v>
       </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>20200306000927</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>sub156</t>
+        </is>
       </c>
       <c r="B157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>19800</v>
+      </c>
+      <c r="D157" t="n">
         <v>8968</v>
       </c>
-      <c r="C157" t="n">
-        <v>-80801223924508</v>
-      </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
+        <v>89575</v>
+      </c>
+      <c r="F157" t="n">
         <v>12860</v>
       </c>
-      <c r="E157" t="n">
-        <v>-80801223924508</v>
-      </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
+        <v>452217</v>
+      </c>
+      <c r="H157" t="n">
         <v>13716</v>
       </c>
-      <c r="G157" t="n">
-        <v>-80801223924508</v>
-      </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
+        <v>1055942</v>
+      </c>
+      <c r="J157" t="n">
         <v>12709</v>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -5968,34 +7224,42 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>20201009003102</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>sub157</t>
+        </is>
       </c>
       <c r="B158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D158" t="n">
         <v>409</v>
       </c>
-      <c r="C158" t="n">
-        <v>-80804036005208</v>
-      </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
+        <v>4920</v>
+      </c>
+      <c r="F158" t="n">
         <v>3742</v>
       </c>
-      <c r="E158" t="n">
-        <v>-80804036005208</v>
-      </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
+        <v>25620</v>
+      </c>
+      <c r="H158" t="n">
         <v>53311</v>
       </c>
-      <c r="G158" t="n">
-        <v>-80804036005208</v>
-      </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
+        <v>72240</v>
+      </c>
+      <c r="J158" t="n">
         <v>29545</v>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -6004,34 +7268,42 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>20200410001952</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sub158</t>
+        </is>
       </c>
       <c r="B159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10080</v>
+      </c>
+      <c r="D159" t="n">
         <v>17948</v>
       </c>
-      <c r="C159" t="n">
-        <v>-80801639967488</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
+        <v>66180</v>
+      </c>
+      <c r="F159" t="n">
         <v>21099</v>
       </c>
-      <c r="E159" t="n">
-        <v>-80801639967488</v>
-      </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
+        <v>256680</v>
+      </c>
+      <c r="H159" t="n">
         <v>44069</v>
       </c>
-      <c r="G159" t="n">
-        <v>-80801639967488</v>
-      </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
+        <v>1111140</v>
+      </c>
+      <c r="J159" t="n">
         <v>64243</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
@@ -6040,22 +7312,30 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>20200218000582</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>sub159</t>
+        </is>
       </c>
       <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D160" t="n">
         <v>14430</v>
       </c>
-      <c r="C160" t="n">
-        <v>-80800871959128</v>
-      </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
+        <v>95520</v>
+      </c>
+      <c r="F160" t="n">
         <v>19019</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -6068,22 +7348,30 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>20200821002584</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>sub160</t>
+        </is>
       </c>
       <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D161" t="n">
         <v>18622</v>
       </c>
-      <c r="C161" t="n">
-        <v>-80803283952736</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
+        <v>62940</v>
+      </c>
+      <c r="F161" t="n">
         <v>28683</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -6096,6 +7384,8 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
